--- a/downloads/partner2_China_Cabo Verde_X_2016.xlsx
+++ b/downloads/partner2_China_Cabo Verde_X_2016.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>primaryValue</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>isAggregate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -503,6 +508,9 @@
       <c r="H2" t="n">
         <v>48602407</v>
       </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -537,6 +545,9 @@
       <c r="H3" t="n">
         <v>69027</v>
       </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -571,6 +582,9 @@
       <c r="H4" t="n">
         <v>4</v>
       </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -600,6 +614,9 @@
       </c>
       <c r="H5" t="n">
         <v>48671438</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
